--- a/adminservice/admin/ege-admin/app/order_manage/联通表单上传模版.xlsx
+++ b/adminservice/admin/ege-admin/app/order_manage/联通表单上传模版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/projectlist/admin/adminservice/admin/ege-admin/app/order_manage/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>订单时间</t>
   </si>
@@ -78,6 +78,16 @@
   </si>
   <si>
     <t>转化率剔除原因</t>
+  </si>
+  <si>
+    <t>渠道码</t>
+    <rPh sb="0" eb="1">
+      <t>qu dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -120,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,27 +434,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="14" max="15" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.1640625" customWidth="1"/>
     <col min="17" max="17" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -485,7 +498,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -493,6 +506,9 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/adminservice/admin/ege-admin/app/order_manage/联通表单上传模版.xlsx
+++ b/adminservice/admin/ege-admin/app/order_manage/联通表单上传模版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>订单时间</t>
   </si>
@@ -86,6 +86,16 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <rPh sb="0" eb="1">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -455,7 +465,7 @@
     <col min="17" max="17" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,6 +519,9 @@
       </c>
       <c r="R1" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
